--- a/emails_esperados.xlsx
+++ b/emails_esperados.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koji.kataoka\Downloads\"/>
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-07-21T14-28_export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
-    <t>Remetente</t>
+    <t>Remetente Esperado</t>
   </si>
   <si>
     <t>Palavra-chave</t>
@@ -30,125 +30,125 @@
     <t>sisbranalitico@sicoob.com.br</t>
   </si>
   <si>
+    <t>Anotacoes</t>
+  </si>
+  <si>
+    <t>Bacen</t>
+  </si>
+  <si>
+    <t>BemImovel</t>
+  </si>
+  <si>
+    <t>Cartoes</t>
+  </si>
+  <si>
+    <t>CB-Diario</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>Cobranca-Entrada</t>
+  </si>
+  <si>
+    <t>Cobranca-Liquidacao</t>
+  </si>
+  <si>
+    <t>Cooperados_semrenda_contacorrente</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>Garantias</t>
+  </si>
+  <si>
+    <t>Gerentes</t>
+  </si>
+  <si>
+    <t>IAP</t>
+  </si>
+  <si>
+    <t>InfoProfissional</t>
+  </si>
+  <si>
+    <t>PacoteTarifas</t>
+  </si>
+  <si>
+    <t>Parcelas</t>
+  </si>
+  <si>
+    <t>Previdencia</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>TarifasPendentes</t>
+  </si>
+  <si>
+    <t>Cartoes_acompanhamento</t>
+  </si>
+  <si>
     <t>CLI 07 - Cadastros Desatualizados</t>
   </si>
   <si>
     <t>Concessão_mês_dia-IQC</t>
   </si>
   <si>
-    <t>Gerentes</t>
-  </si>
-  <si>
-    <t>Cooperados_semrenda_contacorrente</t>
+    <t>Concessão_mês_dia-IQC_TD_HONRAS</t>
+  </si>
+  <si>
+    <t>controle_end_correspondencia</t>
+  </si>
+  <si>
+    <t>Crédito - Conferência</t>
+  </si>
+  <si>
+    <t>Matr_Geral_Novo</t>
+  </si>
+  <si>
+    <t>Portabilidade-CreditoSalario</t>
+  </si>
+  <si>
+    <t>SicoobAnalitico1-Parcelas</t>
   </si>
   <si>
     <t>SuporteOrganizacional-Cartões</t>
   </si>
   <si>
-    <t>Crédito - Conferência</t>
-  </si>
-  <si>
-    <t>controle_end_correspondencia</t>
-  </si>
-  <si>
-    <t>TAC</t>
-  </si>
-  <si>
-    <t>Concessão_mês_dia-IQC_TD_HONRAS</t>
-  </si>
-  <si>
     <t>TD(atraso)</t>
   </si>
   <si>
-    <t>Cartoes_acompanhamento</t>
-  </si>
-  <si>
-    <t>IAP</t>
-  </si>
-  <si>
-    <t>InfoProfissional</t>
-  </si>
-  <si>
-    <t>PacoteTarifas</t>
-  </si>
-  <si>
-    <t>RDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupoeconomico </t>
-  </si>
-  <si>
-    <t>Parcelas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BemMovel </t>
-  </si>
-  <si>
-    <t>CB-Diario</t>
-  </si>
-  <si>
-    <t>Diario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQC-DADOSGERAL </t>
-  </si>
-  <si>
-    <t>Anotacoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NovoEmprestimo </t>
-  </si>
-  <si>
-    <t>Bacen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-Diario-Entrada </t>
-  </si>
-  <si>
-    <t>BemImovel</t>
-  </si>
-  <si>
-    <t>Cartoes</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>Cobranca-Liquidacao</t>
-  </si>
-  <si>
-    <t>Garantias</t>
-  </si>
-  <si>
-    <t>Portabilidade-CreditoSalario</t>
-  </si>
-  <si>
-    <t>Cobranca-Entrada</t>
-  </si>
-  <si>
-    <t>Previdencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negativados </t>
-  </si>
-  <si>
-    <t>TarifasPendentes</t>
-  </si>
-  <si>
-    <t>Matr_Geral_Novo</t>
-  </si>
-  <si>
-    <t>SicoobAnalitico1-Parcelas</t>
+    <t>IQC-DADOSGERAL</t>
+  </si>
+  <si>
+    <t>Negativados</t>
+  </si>
+  <si>
+    <t>NovoEmprestimo</t>
+  </si>
+  <si>
+    <t>BemMovel</t>
+  </si>
+  <si>
+    <t>CB-Diario-Entrada</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>Grupoeconomico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,23 +157,315 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,35 +474,206 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,39 +696,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,166 +807,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -512,7 +951,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -534,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,13 +1269,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B41">
-    <sortCondition ref="B2:B41"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/emails_esperados.xlsx
+++ b/emails_esperados.xlsx
@@ -951,7 +951,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/emails_esperados.xlsx
+++ b/emails_esperados.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
-    <t>Remetente Esperado</t>
-  </si>
-  <si>
     <t>Palavra-chave</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Grupoeconomico</t>
+  </si>
+  <si>
+    <t>Remetente</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,314 +962,314 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/emails_esperados.xlsx
+++ b/emails_esperados.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="2025-07-21T14-28_export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Remetente</t>
+  </si>
+  <si>
+    <t>Conta_Corrente</t>
   </si>
 </sst>
 </file>
@@ -948,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,6 +1275,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
